--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>204.563124475611</v>
+        <v>600.9643110000001</v>
       </c>
       <c r="H2">
-        <v>204.563124475611</v>
+        <v>1802.892933</v>
       </c>
       <c r="I2">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="J2">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>1693.417355044097</v>
+        <v>6283.115325184979</v>
       </c>
       <c r="R2">
-        <v>1693.417355044097</v>
+        <v>56548.03792666482</v>
       </c>
       <c r="S2">
-        <v>0.000312739377435326</v>
+        <v>0.0009294165684277558</v>
       </c>
       <c r="T2">
-        <v>0.000312739377435326</v>
+        <v>0.0009294165684277557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>204.563124475611</v>
+        <v>600.9643110000001</v>
       </c>
       <c r="H3">
-        <v>204.563124475611</v>
+        <v>1802.892933</v>
       </c>
       <c r="I3">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="J3">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>33570.4639058273</v>
+        <v>100618.0930059227</v>
       </c>
       <c r="R3">
-        <v>33570.4639058273</v>
+        <v>905562.8370533044</v>
       </c>
       <c r="S3">
-        <v>0.006199774645542191</v>
+        <v>0.01488371896477267</v>
       </c>
       <c r="T3">
-        <v>0.006199774645542191</v>
+        <v>0.01488371896477267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>204.563124475611</v>
+        <v>600.9643110000001</v>
       </c>
       <c r="H4">
-        <v>204.563124475611</v>
+        <v>1802.892933</v>
       </c>
       <c r="I4">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="J4">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>31077.34609495501</v>
+        <v>136716.7833847479</v>
       </c>
       <c r="R4">
-        <v>31077.34609495501</v>
+        <v>1230451.050462731</v>
       </c>
       <c r="S4">
-        <v>0.005739347031686291</v>
+        <v>0.02022354152097188</v>
       </c>
       <c r="T4">
-        <v>0.005739347031686291</v>
+        <v>0.02022354152097188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>204.563124475611</v>
+        <v>600.9643110000001</v>
       </c>
       <c r="H5">
-        <v>204.563124475611</v>
+        <v>1802.892933</v>
       </c>
       <c r="I5">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="J5">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>29791.99351245669</v>
+        <v>88931.65447535593</v>
       </c>
       <c r="R5">
-        <v>29791.99351245669</v>
+        <v>800384.8902782033</v>
       </c>
       <c r="S5">
-        <v>0.005501968830005498</v>
+        <v>0.01315502721966269</v>
       </c>
       <c r="T5">
-        <v>0.005501968830005498</v>
+        <v>0.01315502721966269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>204.563124475611</v>
+        <v>600.9643110000001</v>
       </c>
       <c r="H6">
-        <v>204.563124475611</v>
+        <v>1802.892933</v>
       </c>
       <c r="I6">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="J6">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>132692.9620914325</v>
+        <v>400113.2279266794</v>
       </c>
       <c r="R6">
-        <v>132692.9620914325</v>
+        <v>3601019.051340114</v>
       </c>
       <c r="S6">
-        <v>0.02450566260639468</v>
+        <v>0.05918590444959222</v>
       </c>
       <c r="T6">
-        <v>0.02450566260639468</v>
+        <v>0.05918590444959222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>204.563124475611</v>
+        <v>600.9643110000001</v>
       </c>
       <c r="H7">
-        <v>204.563124475611</v>
+        <v>1802.892933</v>
       </c>
       <c r="I7">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="J7">
-        <v>0.04426617817794967</v>
+        <v>0.1133122708705296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>10865.77710858792</v>
+        <v>33359.69296686691</v>
       </c>
       <c r="R7">
-        <v>10865.77710858792</v>
+        <v>300237.2367018022</v>
       </c>
       <c r="S7">
-        <v>0.002006685686885685</v>
+        <v>0.004934662147102348</v>
       </c>
       <c r="T7">
-        <v>0.002006685686885685</v>
+        <v>0.004934662147102348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2054.23715593456</v>
+        <v>2055.340413333333</v>
       </c>
       <c r="H8">
-        <v>2054.23715593456</v>
+        <v>6166.02124</v>
       </c>
       <c r="I8">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="J8">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>17005.41512627686</v>
+        <v>21488.69843534967</v>
       </c>
       <c r="R8">
-        <v>17005.41512627686</v>
+        <v>193398.2859181471</v>
       </c>
       <c r="S8">
-        <v>0.003140550629045969</v>
+        <v>0.003178670345219804</v>
       </c>
       <c r="T8">
-        <v>0.003140550629045969</v>
+        <v>0.003178670345219804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2054.23715593456</v>
+        <v>2055.340413333333</v>
       </c>
       <c r="H9">
-        <v>2054.23715593456</v>
+        <v>6166.02124</v>
       </c>
       <c r="I9">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="J9">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>337116.938715572</v>
+        <v>344120.9886881369</v>
       </c>
       <c r="R9">
-        <v>337116.938715572</v>
+        <v>3097088.898193232</v>
       </c>
       <c r="S9">
-        <v>0.06225856917243269</v>
+        <v>0.05090337068118014</v>
       </c>
       <c r="T9">
-        <v>0.06225856917243269</v>
+        <v>0.05090337068118014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2054.23715593456</v>
+        <v>2055.340413333333</v>
       </c>
       <c r="H10">
-        <v>2054.23715593456</v>
+        <v>6166.02124</v>
       </c>
       <c r="I10">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="J10">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>312080.8758653163</v>
+        <v>467581.0608520669</v>
       </c>
       <c r="R10">
-        <v>312080.8758653163</v>
+        <v>4208229.547668602</v>
       </c>
       <c r="S10">
-        <v>0.057634922978009</v>
+        <v>0.06916594118478055</v>
       </c>
       <c r="T10">
-        <v>0.057634922978009</v>
+        <v>0.06916594118478055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2054.23715593456</v>
+        <v>2055.340413333333</v>
       </c>
       <c r="H11">
-        <v>2054.23715593456</v>
+        <v>6166.02124</v>
       </c>
       <c r="I11">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="J11">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>299173.2756308503</v>
+        <v>304152.5430414373</v>
       </c>
       <c r="R11">
-        <v>299173.2756308503</v>
+        <v>2737372.887372936</v>
       </c>
       <c r="S11">
-        <v>0.05525115452926421</v>
+        <v>0.04499112274750829</v>
       </c>
       <c r="T11">
-        <v>0.05525115452926421</v>
+        <v>0.0449911227475083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2054.23715593456</v>
+        <v>2055.340413333333</v>
       </c>
       <c r="H12">
-        <v>2054.23715593456</v>
+        <v>6166.02124</v>
       </c>
       <c r="I12">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="J12">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>1332511.97525454</v>
+        <v>1368415.51522176</v>
       </c>
       <c r="R12">
-        <v>1332511.97525454</v>
+        <v>12315739.63699584</v>
       </c>
       <c r="S12">
-        <v>0.2460875721657935</v>
+        <v>0.2024199758426787</v>
       </c>
       <c r="T12">
-        <v>0.2460875721657935</v>
+        <v>0.2024199758426787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2054.23715593456</v>
+        <v>2055.340413333333</v>
       </c>
       <c r="H13">
-        <v>2054.23715593456</v>
+        <v>6166.02124</v>
       </c>
       <c r="I13">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="J13">
-        <v>0.4445240470268889</v>
+        <v>0.3875359740734635</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>109114.8911700638</v>
+        <v>114092.5074520662</v>
       </c>
       <c r="R13">
-        <v>109114.8911700638</v>
+        <v>1026832.567068596</v>
       </c>
       <c r="S13">
-        <v>0.02015127755234354</v>
+        <v>0.01687689327209597</v>
       </c>
       <c r="T13">
-        <v>0.02015127755234354</v>
+        <v>0.01687689327209597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>798.460184615562</v>
+        <v>1058.049133333333</v>
       </c>
       <c r="H14">
-        <v>798.460184615562</v>
+        <v>3174.1474</v>
       </c>
       <c r="I14">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="J14">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>6609.824411930673</v>
+        <v>11061.96258706842</v>
       </c>
       <c r="R14">
-        <v>6609.824411930673</v>
+        <v>99557.66328361581</v>
       </c>
       <c r="S14">
-        <v>0.001220698704537718</v>
+        <v>0.001636317459674619</v>
       </c>
       <c r="T14">
-        <v>0.001220698704537718</v>
+        <v>0.001636317459674619</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>798.460184615562</v>
+        <v>1058.049133333333</v>
       </c>
       <c r="H15">
-        <v>798.460184615562</v>
+        <v>3174.1474</v>
       </c>
       <c r="I15">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="J15">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>131033.7768676031</v>
+        <v>177146.769207347</v>
       </c>
       <c r="R15">
-        <v>131033.7768676031</v>
+        <v>1594320.922866122</v>
       </c>
       <c r="S15">
-        <v>0.02419924519995633</v>
+        <v>0.02620406181067651</v>
       </c>
       <c r="T15">
-        <v>0.02419924519995633</v>
+        <v>0.02620406181067651</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>798.460184615562</v>
+        <v>1058.049133333333</v>
       </c>
       <c r="H16">
-        <v>798.460184615562</v>
+        <v>3174.1474</v>
       </c>
       <c r="I16">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="J16">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>121302.5249000728</v>
+        <v>240701.6049449791</v>
       </c>
       <c r="R16">
-        <v>121302.5249000728</v>
+        <v>2166314.444504812</v>
       </c>
       <c r="S16">
-        <v>0.02240208298656183</v>
+        <v>0.03560527669869398</v>
       </c>
       <c r="T16">
-        <v>0.02240208298656183</v>
+        <v>0.03560527669869398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>798.460184615562</v>
+        <v>1058.049133333333</v>
       </c>
       <c r="H17">
-        <v>798.460184615562</v>
+        <v>3174.1474</v>
       </c>
       <c r="I17">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="J17">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>116285.4776539057</v>
+        <v>156571.7934014717</v>
       </c>
       <c r="R17">
-        <v>116285.4776539057</v>
+        <v>1409146.140613245</v>
       </c>
       <c r="S17">
-        <v>0.02147553748514935</v>
+        <v>0.02316055195620512</v>
       </c>
       <c r="T17">
-        <v>0.02147553748514935</v>
+        <v>0.02316055195620512</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>798.460184615562</v>
+        <v>1058.049133333333</v>
       </c>
       <c r="H18">
-        <v>798.460184615562</v>
+        <v>3174.1474</v>
       </c>
       <c r="I18">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="J18">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>517933.2652466543</v>
+        <v>704433.6016203557</v>
       </c>
       <c r="R18">
-        <v>517933.2652466543</v>
+        <v>6339902.414583202</v>
       </c>
       <c r="S18">
-        <v>0.09565162801940591</v>
+        <v>0.1042018531919785</v>
       </c>
       <c r="T18">
-        <v>0.09565162801940591</v>
+        <v>0.1042018531919785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>798.460184615562</v>
+        <v>1058.049133333333</v>
       </c>
       <c r="H19">
-        <v>798.460184615562</v>
+        <v>3174.1474</v>
       </c>
       <c r="I19">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="J19">
-        <v>0.172781780151217</v>
+        <v>0.1994959564089584</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>42411.80035920424</v>
+        <v>58732.59623874674</v>
       </c>
       <c r="R19">
-        <v>42411.80035920424</v>
+        <v>528593.3661487207</v>
       </c>
       <c r="S19">
-        <v>0.007832587755605868</v>
+        <v>0.008687895291729636</v>
       </c>
       <c r="T19">
-        <v>0.007832587755605868</v>
+        <v>0.008687895291729636</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>581.853787441989</v>
+        <v>590.3671876666667</v>
       </c>
       <c r="H20">
-        <v>581.853787441989</v>
+        <v>1771.101563</v>
       </c>
       <c r="I20">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="J20">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>4816.710266223364</v>
+        <v>6172.321810828447</v>
       </c>
       <c r="R20">
-        <v>4816.710266223364</v>
+        <v>55550.89629745603</v>
       </c>
       <c r="S20">
-        <v>0.0008895473791254556</v>
+        <v>0.0009130276717438853</v>
       </c>
       <c r="T20">
-        <v>0.0008895473791254556</v>
+        <v>0.0009130276717438853</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>581.853787441989</v>
+        <v>590.3671876666667</v>
       </c>
       <c r="H21">
-        <v>581.853787441989</v>
+        <v>1771.101563</v>
       </c>
       <c r="I21">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="J21">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>95486.91446643909</v>
+        <v>98843.84065577183</v>
       </c>
       <c r="R21">
-        <v>95486.91446643909</v>
+        <v>889594.5659019464</v>
       </c>
       <c r="S21">
-        <v>0.01763447037701864</v>
+        <v>0.01462126643199927</v>
       </c>
       <c r="T21">
-        <v>0.01763447037701864</v>
+        <v>0.01462126643199927</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>581.853787441989</v>
+        <v>590.3671876666667</v>
       </c>
       <c r="H22">
-        <v>581.853787441989</v>
+        <v>1771.101563</v>
       </c>
       <c r="I22">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="J22">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>88395.55797433549</v>
+        <v>134305.9836271816</v>
       </c>
       <c r="R22">
-        <v>88395.55797433549</v>
+        <v>1208753.852644634</v>
       </c>
       <c r="S22">
-        <v>0.01632484259512155</v>
+        <v>0.01986692905695065</v>
       </c>
       <c r="T22">
-        <v>0.01632484259512155</v>
+        <v>0.01986692905695066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>581.853787441989</v>
+        <v>590.3671876666667</v>
       </c>
       <c r="H23">
-        <v>581.853787441989</v>
+        <v>1771.101563</v>
       </c>
       <c r="I23">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="J23">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>84739.53604837906</v>
+        <v>87363.47531153078</v>
       </c>
       <c r="R23">
-        <v>84739.53604837906</v>
+        <v>786271.277803777</v>
       </c>
       <c r="S23">
-        <v>0.01564965049459903</v>
+        <v>0.01292305762787752</v>
       </c>
       <c r="T23">
-        <v>0.01564965049459903</v>
+        <v>0.01292305762787752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>581.853787441989</v>
+        <v>590.3671876666667</v>
       </c>
       <c r="H24">
-        <v>581.853787441989</v>
+        <v>1771.101563</v>
       </c>
       <c r="I24">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="J24">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>377428.252319256</v>
+        <v>393057.8185687065</v>
       </c>
       <c r="R24">
-        <v>377428.252319256</v>
+        <v>3537520.367118358</v>
       </c>
       <c r="S24">
-        <v>0.06970324019961018</v>
+        <v>0.05814224791697125</v>
       </c>
       <c r="T24">
-        <v>0.06970324019961018</v>
+        <v>0.05814224791697126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>581.853787441989</v>
+        <v>590.3671876666667</v>
       </c>
       <c r="H25">
-        <v>581.853787441989</v>
+        <v>1771.101563</v>
       </c>
       <c r="I25">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="J25">
-        <v>0.12590951323435</v>
+        <v>0.1113141753303851</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>30906.32087449427</v>
+        <v>32771.44375761891</v>
       </c>
       <c r="R25">
-        <v>30906.32087449427</v>
+        <v>294942.9938185702</v>
       </c>
       <c r="S25">
-        <v>0.005707762188875206</v>
+        <v>0.004847646624842532</v>
       </c>
       <c r="T25">
-        <v>0.005707762188875206</v>
+        <v>0.004847646624842532</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>432.616512739482</v>
+        <v>441.9456483333333</v>
       </c>
       <c r="H26">
-        <v>432.616512739482</v>
+        <v>1325.836945</v>
       </c>
       <c r="I26">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377463</v>
       </c>
       <c r="J26">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377462</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>3581.292144562637</v>
+        <v>4620.56635496609</v>
       </c>
       <c r="R26">
-        <v>3581.292144562637</v>
+        <v>41585.09719469481</v>
       </c>
       <c r="S26">
-        <v>0.0006613910459630178</v>
+        <v>0.0006834875222824111</v>
       </c>
       <c r="T26">
-        <v>0.0006613910459630178</v>
+        <v>0.0006834875222824111</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>432.616512739482</v>
+        <v>441.9456483333333</v>
       </c>
       <c r="H27">
-        <v>432.616512739482</v>
+        <v>1325.836945</v>
       </c>
       <c r="I27">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377463</v>
       </c>
       <c r="J27">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377462</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>70995.87016582343</v>
+        <v>73993.9585989261</v>
       </c>
       <c r="R27">
-        <v>70995.87016582343</v>
+        <v>665945.6273903348</v>
       </c>
       <c r="S27">
-        <v>0.01311147790590624</v>
+        <v>0.01094540009630886</v>
       </c>
       <c r="T27">
-        <v>0.01311147790590624</v>
+        <v>0.01094540009630886</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>432.616512739482</v>
+        <v>441.9456483333333</v>
       </c>
       <c r="H28">
-        <v>432.616512739482</v>
+        <v>1325.836945</v>
       </c>
       <c r="I28">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377463</v>
       </c>
       <c r="J28">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377462</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>65723.34641085482</v>
+        <v>100540.7249067412</v>
       </c>
       <c r="R28">
-        <v>65723.34641085482</v>
+        <v>904866.5241606712</v>
       </c>
       <c r="S28">
-        <v>0.01213775114461477</v>
+        <v>0.01487227445205478</v>
       </c>
       <c r="T28">
-        <v>0.01213775114461477</v>
+        <v>0.01487227445205478</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>432.616512739482</v>
+        <v>441.9456483333333</v>
       </c>
       <c r="H29">
-        <v>432.616512739482</v>
+        <v>1325.836945</v>
       </c>
       <c r="I29">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377463</v>
       </c>
       <c r="J29">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377462</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>63005.04244817064</v>
+        <v>65399.81988126272</v>
       </c>
       <c r="R29">
-        <v>63005.04244817064</v>
+        <v>588598.3789313645</v>
       </c>
       <c r="S29">
-        <v>0.01163573627720029</v>
+        <v>0.009674130271999582</v>
       </c>
       <c r="T29">
-        <v>0.01163573627720029</v>
+        <v>0.009674130271999584</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>432.616512739482</v>
+        <v>441.9456483333333</v>
       </c>
       <c r="H30">
-        <v>432.616512739482</v>
+        <v>1325.836945</v>
       </c>
       <c r="I30">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377463</v>
       </c>
       <c r="J30">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377462</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>280623.238778854</v>
+        <v>294240.9335898136</v>
       </c>
       <c r="R30">
-        <v>280623.238778854</v>
+        <v>2648168.402308322</v>
       </c>
       <c r="S30">
-        <v>0.05182534401703842</v>
+        <v>0.04352496884656059</v>
       </c>
       <c r="T30">
-        <v>0.05182534401703842</v>
+        <v>0.04352496884656059</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>432.616512739482</v>
+        <v>441.9456483333333</v>
       </c>
       <c r="H31">
-        <v>432.616512739482</v>
+        <v>1325.836945</v>
       </c>
       <c r="I31">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377463</v>
       </c>
       <c r="J31">
-        <v>0.09361550223061993</v>
+        <v>0.08332918294377462</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N31">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O31">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P31">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q31">
-        <v>22979.28628618615</v>
+        <v>24532.52359014533</v>
       </c>
       <c r="R31">
-        <v>22979.28628618615</v>
+        <v>220792.712311308</v>
       </c>
       <c r="S31">
-        <v>0.004243801839897195</v>
+        <v>0.003628921754568393</v>
       </c>
       <c r="T31">
-        <v>0.004243801839897195</v>
+        <v>0.003628921754568393</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>549.47515081448</v>
+        <v>556.945231</v>
       </c>
       <c r="H32">
-        <v>549.47515081448</v>
+        <v>1670.835693</v>
       </c>
       <c r="I32">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="J32">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N32">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q32">
-        <v>4548.672977791023</v>
+        <v>5822.893393389526</v>
       </c>
       <c r="R32">
-        <v>4548.672977791023</v>
+        <v>52406.04054050573</v>
       </c>
       <c r="S32">
-        <v>0.0008400464014343417</v>
+        <v>0.0008613392108707496</v>
       </c>
       <c r="T32">
-        <v>0.0008400464014343417</v>
+        <v>0.0008613392108707495</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>549.47515081448</v>
+        <v>556.945231</v>
       </c>
       <c r="H33">
-        <v>549.47515081448</v>
+        <v>1670.835693</v>
       </c>
       <c r="I33">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="J33">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N33">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q33">
-        <v>90173.31821095523</v>
+        <v>93248.07817408498</v>
       </c>
       <c r="R33">
-        <v>90173.31821095523</v>
+        <v>839232.7035667647</v>
       </c>
       <c r="S33">
-        <v>0.01665315836912355</v>
+        <v>0.01379352508168225</v>
       </c>
       <c r="T33">
-        <v>0.01665315836912355</v>
+        <v>0.01379352508168225</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>549.47515081448</v>
+        <v>556.945231</v>
       </c>
       <c r="H34">
-        <v>549.47515081448</v>
+        <v>1670.835693</v>
       </c>
       <c r="I34">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="J34">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N34">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q34">
-        <v>83476.57710163255</v>
+        <v>126702.6329352116</v>
       </c>
       <c r="R34">
-        <v>83476.57710163255</v>
+        <v>1140323.696416904</v>
       </c>
       <c r="S34">
-        <v>0.01541640793714242</v>
+        <v>0.01874221945941108</v>
       </c>
       <c r="T34">
-        <v>0.01541640793714242</v>
+        <v>0.01874221945941108</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>549.47515081448</v>
+        <v>556.945231</v>
       </c>
       <c r="H35">
-        <v>549.47515081448</v>
+        <v>1670.835693</v>
       </c>
       <c r="I35">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="J35">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N35">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q35">
-        <v>80024.00320333813</v>
+        <v>82417.6410119457</v>
       </c>
       <c r="R35">
-        <v>80024.00320333813</v>
+        <v>741758.7691075113</v>
       </c>
       <c r="S35">
-        <v>0.01477878850547318</v>
+        <v>0.0121914555316519</v>
       </c>
       <c r="T35">
-        <v>0.01477878850547318</v>
+        <v>0.0121914555316519</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>549.47515081448</v>
+        <v>556.945231</v>
       </c>
       <c r="H36">
-        <v>549.47515081448</v>
+        <v>1670.835693</v>
       </c>
       <c r="I36">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="J36">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N36">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O36">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P36">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q36">
-        <v>356425.360358156</v>
+        <v>370805.9697970652</v>
       </c>
       <c r="R36">
-        <v>356425.360358156</v>
+        <v>3337253.728173586</v>
       </c>
       <c r="S36">
-        <v>0.06582443776694892</v>
+        <v>0.05485069016955662</v>
       </c>
       <c r="T36">
-        <v>0.06582443776694892</v>
+        <v>0.05485069016955662</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>549.47515081448</v>
+        <v>556.945231</v>
       </c>
       <c r="H37">
-        <v>549.47515081448</v>
+        <v>1670.835693</v>
       </c>
       <c r="I37">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="J37">
-        <v>0.1189029791789745</v>
+        <v>0.1050124403728887</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N37">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O37">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P37">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q37">
-        <v>29186.46520854106</v>
+        <v>30916.18181885807</v>
       </c>
       <c r="R37">
-        <v>29186.46520854106</v>
+        <v>278245.6363697226</v>
       </c>
       <c r="S37">
-        <v>0.005390140198852067</v>
+        <v>0.004573210919716118</v>
       </c>
       <c r="T37">
-        <v>0.005390140198852067</v>
+        <v>0.004573210919716117</v>
       </c>
     </row>
   </sheetData>
